--- a/deals.xlsx
+++ b/deals.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D406"/>
+  <dimension ref="A1:D405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ternet bacon</t>
+          <t>Vingeklubber/hotwings</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250 g•kr 139,60/kg</t>
+          <t>600-700 g•maks kr 74,83/kg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kr 34,90</t>
+          <t>kr 44,90</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rå kyllinglår</t>
+          <t>Kjøttboller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2 kg•kr 49,95/kg</t>
+          <t>525 g•kr 104,57/kg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>kr 99,90</t>
+          <t>kr 54,90</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fiskeburger</t>
+          <t>Anthon berg iskake</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2x440 g•kr 90,91/kg</t>
+          <t>1 000 ml•kr 89,90/l</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>kr 80</t>
+          <t>kr 89,90</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tynnribbe med svor</t>
+          <t>Marsipankake</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1 kg•kr 109/kg</t>
+          <t>900 g•kr 166,56/kg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>kr 109</t>
+          <t>kr 149,90</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Urøkt pinnekjøtt</t>
+          <t>Sjokoladekake</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1 kg•kr 299/kg</t>
+          <t>700 g•kr 171,29/kg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>kr 299</t>
+          <t>kr 119,90</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prima pinnekjøtt</t>
+          <t>Go' morgen 6 pk</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1 kg•kr 249,90/kg</t>
+          <t>6x190 g•kr 52,54/kg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>kr 249,90</t>
+          <t>kr 59,90</t>
         </is>
       </c>
     </row>
@@ -595,13 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Persimon</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Villa lett 10 pk</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10x330 ml•kr 18,15/l</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 59,90</t>
         </is>
       </c>
     </row>
@@ -613,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Meksikansk kit</t>
+          <t>Melkehjerter</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>270 g•kr 110,74/kg</t>
+          <t>130 g•kr 306,92/kg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -635,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Råkostsalat</t>
+          <t>Prima pinnekjøtt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>250 g•kr 79,60/kg</t>
+          <t>1 kg•kr 249,90/kg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 249,90</t>
         </is>
       </c>
     </row>
@@ -657,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kylling lårfilet</t>
+          <t>Tynnribbe med svor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>600 g•kr 147,67/kg</t>
+          <t>1 kg•kr 109/kg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>kr 88,60</t>
+          <t>kr 109</t>
         </is>
       </c>
     </row>
@@ -679,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tapasost</t>
+          <t>Pinnekjøtt lam</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>80 g•kr 523,75/kg</t>
+          <t>1 kg•kr 329,90/kg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>kr 41,90</t>
+          <t>kr 329,90</t>
         </is>
       </c>
     </row>
@@ -701,13 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wc active marine</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>Kyllingfilet</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1 000 g•kr 158,20/kg</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 158,20</t>
         </is>
       </c>
     </row>
@@ -719,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Wc blokk 3pk</t>
+          <t>Smash</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3x55 ml• kr 193,33/l</t>
+          <t>200 g• kr 199,50/kg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>kr 31,90</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -741,13 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mikrofiber klut</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Cheez doodles</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>120 g• kr 199,17/kg</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>kr 25,20</t>
+          <t>kr 23,90</t>
         </is>
       </c>
     </row>
@@ -759,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sjoko-/karamellpudding</t>
+          <t>Råkostsalat</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2x170 g• kr 161,76/kg</t>
+          <t>250 g• kr 79,60/kg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>kr 55</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -781,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Medisterkaker</t>
+          <t>Ternet bacon</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>800 g• kr 99,88/kg</t>
+          <t>250 g• kr 139,60/kg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>kr 79,90</t>
+          <t>kr 34,90</t>
         </is>
       </c>
     </row>
@@ -803,13 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RØDLØK/GUL LØK</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>I love hjerter salt</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2x100 g• kr 250/kg</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -821,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fløtepotet</t>
+          <t>Marsipankake</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1,2 kg• kr 49,92/kg</t>
+          <t>900 g• kr 166,56/kg</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>kr 59,90</t>
+          <t>kr 149,90</t>
         </is>
       </c>
     </row>
@@ -843,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Paprika mix</t>
+          <t>Medisterkaker</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>400 g• kr 49,75/kg</t>
+          <t>800 g• kr 99,88/kg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 79,90</t>
         </is>
       </c>
     </row>
@@ -865,17 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bacondadler</t>
+          <t>Røkt laks skivet</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>90 g• kr 544,44/kg</t>
+          <t>350 g• kr 467,14/kg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>kr 49</t>
+          <t>kr 163,50</t>
         </is>
       </c>
     </row>
@@ -887,17 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Serrano gran reserva</t>
+          <t>Tomat-/rømme-/sursild</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>180 g• kr 555/kg</t>
+          <t>250 g• kr 99,60/kg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>kr 99,90</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -909,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Smash</t>
+          <t>Big beef burger</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>200 g• kr 199,50/kg</t>
+          <t>350 g• kr 165,43/kg</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>kr 39,90</t>
+          <t>kr 57,90</t>
         </is>
       </c>
     </row>
@@ -931,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cheez doodles</t>
+          <t>Bacon</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>120 g• kr 199,17/kg</t>
+          <t>400 g• kr 199,75/kg</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>kr 23,90</t>
+          <t>kr 79,90</t>
         </is>
       </c>
     </row>
@@ -953,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kolonihagen egg 6</t>
+          <t>Svinekoteletter</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6 stykker• kr 6,15/hver</t>
+          <t>1 kg• kr 79,90/kg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>kr 36,90</t>
+          <t>kr 79,90</t>
         </is>
       </c>
     </row>
@@ -975,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Råkostsalat</t>
+          <t>Kålrotstappe</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>250 g• kr 79,60/kg</t>
+          <t>700 g• kr 49,86/kg</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 34,90</t>
         </is>
       </c>
     </row>
@@ -997,17 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kylling lårfilet</t>
+          <t>Fløtepotet</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>600 g• kr 147,67/kg</t>
+          <t>1,2 kg• kr 49,92/kg</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>kr 88,60</t>
+          <t>kr 59,90</t>
         </is>
       </c>
     </row>
@@ -1019,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tapasost</t>
+          <t>Mandelpotet</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>80 g• kr 523,75/kg</t>
+          <t>1 000 g• kr 39,90/kg</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>kr 41,90</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1057,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Smash</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>200 g• kr 199,50/kg</t>
-        </is>
-      </c>
+          <t>RØDLØK/GUL LØK</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>kr 39,90</t>
+          <t>kr 14,90</t>
         </is>
       </c>
     </row>
@@ -1063,17 +1075,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cheez doodles</t>
+          <t>Gulrot pose</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>120 g• kr 199,17/kg</t>
+          <t>1 000 g• kr 24,90/kg</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>kr 23,90</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -1085,13 +1097,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mikrofiber klut</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>Fiskeburger</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2x440 g• kr 90,91/kg</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>kr 25,20</t>
+          <t>kr 80</t>
         </is>
       </c>
     </row>
@@ -1103,17 +1119,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sjoko-/karamellpudding</t>
+          <t>Surdeig iberico toast</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2x170 g• kr 161,76/kg</t>
+          <t>420 g• kr 142,62/kg</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>kr 55</t>
+          <t>kr 59,90</t>
         </is>
       </c>
     </row>
@@ -1125,17 +1141,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Medisterkaker</t>
+          <t>Sjoko-/karamellpudding</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>800 g• kr 99,88/kg</t>
+          <t>2x170 g• kr 161,76/kg</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>kr 79,90</t>
+          <t>kr 55</t>
         </is>
       </c>
     </row>
@@ -1147,13 +1163,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RØDLØK/GUL LØK</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Lutefisk helside</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1 kg• kr 199/kg</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 199</t>
         </is>
       </c>
     </row>
@@ -1165,17 +1185,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gulrot pose</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1 000 g• kr 24,90/kg</t>
-        </is>
-      </c>
+          <t>Svibel 8 cm</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 10</t>
         </is>
       </c>
     </row>
@@ -1187,17 +1203,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Paprika mix</t>
+          <t>Julepølse røkt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>400 g• kr 49,75/kg</t>
+          <t>400 g• kr 99,75/kg</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -1209,17 +1225,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kyllingfilet 2 pk</t>
+          <t>Strimlet kyllingfilet</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>480 g• kr 163,13/kg</t>
+          <t>450 g• kr 175,33/kg</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>kr 78,30</t>
+          <t>kr 78,90</t>
         </is>
       </c>
     </row>
@@ -1231,17 +1247,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bacon</t>
+          <t>Go' morgen 6 pk</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>400 g• kr 199,75/kg</t>
+          <t>6x190 g• kr 52,54/kg</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>kr 79,90</t>
+          <t>kr 59,90</t>
         </is>
       </c>
     </row>
@@ -1253,17 +1269,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Seifilet</t>
+          <t>Mini tacobaguette</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>380 g• kr 183,95/kg</t>
+          <t>320 g• kr 155,94/kg</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>kr 69,90</t>
+          <t>kr 49,90</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1291,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Big beef burger</t>
+          <t>Urøkt pinnekjøtt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>350 g• kr 165,43/kg</t>
+          <t>1 kg• kr 299/kg</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>kr 57,90</t>
+          <t>kr 299</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1313,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Vingeklubber/hotwings</t>
+          <t>Tynnribbe</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>600-700 g• maks kr 74,83/kg</t>
+          <t>1 kg• kr 129/kg</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>kr 44,90</t>
+          <t>kr 129</t>
         </is>
       </c>
     </row>
@@ -1319,17 +1335,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Anthon berg iskake</t>
+          <t>Pinnekjøtt lam</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1 000 ml• kr 89,90/l</t>
+          <t>1 kg• kr 329,90/kg</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>kr 89,90</t>
+          <t>kr 329,90</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1357,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Marsipankake</t>
+          <t>Strimlet kyllingfilet</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>900 g• kr 166,56/kg</t>
+          <t>450 g• kr 175,33/kg</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>kr 149,90</t>
+          <t>kr 78,90</t>
         </is>
       </c>
     </row>
@@ -1363,17 +1379,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pinnekjøtt lam</t>
+          <t>Kylling lårfilet</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1 kg• kr 329,90/kg</t>
+          <t>600 g• kr 147,67/kg</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>kr 329,90</t>
+          <t>kr 88,60</t>
         </is>
       </c>
     </row>
@@ -1385,17 +1401,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Slakterens utvalgte tynnribbe</t>
+          <t>Serrano gran reserva</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1 kg• kr 199/kg</t>
+          <t>180 g• kr 555/kg</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>kr 199</t>
+          <t>kr 99,90</t>
         </is>
       </c>
     </row>
@@ -1407,17 +1423,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Julepølse urøkt</t>
+          <t>Kolonihagen egg 6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>400 g• kr 99,75/kg</t>
+          <t>6 stykker• kr 6,15/hver</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>kr 39,90</t>
+          <t>kr 36,90</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1445,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Grovt brød</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>720 g• kr 27,64/kg</t>
-        </is>
-      </c>
+          <t>Kjøkkenklut microfiber</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 21,50</t>
         </is>
       </c>
     </row>
@@ -1451,17 +1463,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ekstra grovt brød</t>
+          <t>Popcorn</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>750 g• kr 33,33/kg</t>
+          <t>100 g• kr 139/kg</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>kr 25</t>
+          <t>kr 13,90</t>
         </is>
       </c>
     </row>
@@ -1473,17 +1485,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Halvgrovt brød</t>
+          <t>Paprika mix</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>590 g• kr 49,15/kg</t>
+          <t>400 g• kr 49,75/kg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>kr 29</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -1495,17 +1507,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Kyllingfilet</t>
+          <t>Findus fish &amp; crisp</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2x80 g• kr 250/kg</t>
+          <t>200 g• kr 119,50/kg</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 23,90</t>
         </is>
       </c>
     </row>
@@ -1517,17 +1529,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Kjøttpålegg</t>
+          <t>Mini tacobaguette</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2x80 g• kr 218,75/kg</t>
+          <t>320 g• kr 155,94/kg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>kr 35</t>
+          <t>kr 49,90</t>
         </is>
       </c>
     </row>
@@ -1539,17 +1551,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Strynskinke</t>
+          <t>Slakterens utvalgte tynnribbe</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2x150 g• kr 296,67/kg</t>
+          <t>1 kg• kr 199/kg</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>kr 89</t>
+          <t>kr 199</t>
         </is>
       </c>
     </row>
@@ -1561,17 +1573,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nocellara</t>
+          <t>Julepølse urøkt</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>110 g• kr 308,18/kg</t>
+          <t>400 g• kr 99,75/kg</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>kr 33,90</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -1583,13 +1595,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kjøkkenklut microfiber</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>Tomat-/rømme-/sursild</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>250 g• kr 99,60/kg</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>kr 21,50</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -1601,17 +1617,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Popcorn</t>
+          <t>Big beef burger</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>100 g• kr 139/kg</t>
+          <t>350 g• kr 165,43/kg</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>kr 13,90</t>
+          <t>kr 57,90</t>
         </is>
       </c>
     </row>
@@ -1623,17 +1639,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Marsipanstang</t>
+          <t>Bacondadler</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>38 g• kr 434,21/kg</t>
+          <t>90 g• kr 544,44/kg</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>kr 16,50</t>
+          <t>kr 49</t>
         </is>
       </c>
     </row>
@@ -1645,17 +1661,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sjokoladedråper</t>
+          <t>Serrano gran reserva</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>250 g• kr 259,60/kg</t>
+          <t>180 g• kr 555/kg</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>kr 64,90</t>
+          <t>kr 99,90</t>
         </is>
       </c>
     </row>
@@ -1667,17 +1683,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Taffel vann</t>
+          <t>Strynskinke</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4x1,5 l• kr 5/l</t>
+          <t>2x150 g• kr 296,67/kg</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 89</t>
         </is>
       </c>
     </row>
@@ -1689,17 +1705,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pampas ytrefilet/etrecôte</t>
+          <t>Ternet bacon</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>200-250 g• maks kr 499,50/kg</t>
+          <t>250 g• kr 139,60/kg</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>kr 99,90</t>
+          <t>kr 34,90</t>
         </is>
       </c>
     </row>
@@ -1711,17 +1727,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Kjøttboller</t>
+          <t>Rå kyllinglår</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>525 g• kr 104,57/kg</t>
+          <t>2 kg• kr 49,95/kg</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>kr 54,90</t>
+          <t>kr 99,90</t>
         </is>
       </c>
     </row>
@@ -1733,17 +1749,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Svinekoteletter</t>
+          <t>Biola skogsbær/vanilje</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1 kg• kr 79,90/kg</t>
+          <t>1,5 l• kr 23,33/l</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>kr 79,90</t>
+          <t>kr 35</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1771,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Peru økologisk</t>
+          <t>I love hjerter salt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>225 g• kr 444,00/kg</t>
+          <t>2x100 g• kr 250/kg</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>kr 99,90</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -1777,17 +1793,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hvetemel sikt øko</t>
+          <t>Urøkt pinnekjøtt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1 kg• kr 25,90/kg</t>
+          <t>1 kg• kr 299/kg</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>kr 25,90</t>
+          <t>kr 299</t>
         </is>
       </c>
     </row>
@@ -1799,17 +1815,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Taffel vann</t>
+          <t>Tynnribbe</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4x1,5 l• kr 5/l</t>
+          <t>1 kg• kr 129/kg</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 129</t>
         </is>
       </c>
     </row>
@@ -1821,17 +1837,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ternet bacon</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>250 g• kr 139,60/kg</t>
-        </is>
-      </c>
+          <t>Tulipaner 7 pk</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>kr 34,90</t>
+          <t>kr 59,90</t>
         </is>
       </c>
     </row>
@@ -1843,17 +1855,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Rå kyllinglår</t>
+          <t>Salte kjeks</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2 kg• kr 49,95/kg</t>
+          <t>200 g• kr 98/kg</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>kr 99,90</t>
+          <t>kr 19,60</t>
         </is>
       </c>
     </row>
@@ -1865,17 +1877,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fiskeburger</t>
+          <t>Fiskekaker</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2x440 g• kr 90,91/kg</t>
+          <t>2x385 g• kr 64,94/kg</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>kr 80</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -1887,17 +1899,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tynnribbe med svor</t>
+          <t>Seifilet</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1 kg• kr 109/kg</t>
+          <t>380 g• kr 183,95/kg</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>kr 109</t>
+          <t>kr 69,90</t>
         </is>
       </c>
     </row>
@@ -1909,17 +1921,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Julepølse røkt</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>400 g• kr 99,75/kg</t>
-        </is>
-      </c>
+          <t>Mikrofiber klut</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>kr 39,90</t>
+          <t>kr 25,20</t>
         </is>
       </c>
     </row>
@@ -1931,17 +1939,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tynnribbe</t>
+          <t>Sjokoladedråper</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1 kg• kr 129/kg</t>
+          <t>250 g• kr 259,60/kg</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>kr 129</t>
+          <t>kr 64,90</t>
         </is>
       </c>
     </row>
@@ -1953,17 +1961,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tomat-/rømme-/sursild</t>
+          <t>Taffel vann</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>250 g• kr 99,60/kg</t>
+          <t>4x1,5 l• kr 5/l</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -1975,17 +1983,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fløtepotet</t>
+          <t>Paprika mix</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1,2 kg• kr 49,92/kg</t>
+          <t>400 g• kr 49,75/kg</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>kr 59,90</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -1997,17 +2005,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Halvgrovt brød</t>
+          <t>Meksikansk kit</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>590 g• kr 49,15/kg</t>
+          <t>270 g• kr 110,74/kg</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>kr 29</t>
+          <t>kr 29,90</t>
         </is>
       </c>
     </row>
@@ -2019,13 +2027,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Svibel 8 cm</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>Råkostsalat</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>250 g• kr 79,60/kg</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>kr 10</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -2037,13 +2049,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tulipaner 7 pk</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>Kyllingfilet</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2x80 g• kr 250/kg</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>kr 49,90</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -2055,17 +2071,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Kyllingfilet</t>
+          <t>Persimon 3-pk</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1 000 g• kr 158,20/kg</t>
+          <t>3 stykker• kr 8,30/hver</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>kr 158,20</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -2077,17 +2093,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Salte kjeks</t>
+          <t>Grovt brød</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>200 g• kr 98/kg</t>
+          <t>720 g• kr 27,64/kg</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>kr 19,60</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -2099,17 +2115,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Bacon</t>
+          <t>Ekstra grovt brød</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>400 g• kr 199,75/kg</t>
+          <t>750 g• kr 33,33/kg</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>kr 79,90</t>
+          <t>kr 25</t>
         </is>
       </c>
     </row>
@@ -2121,13 +2137,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mikrofiber klut universal</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>Halvgrovt brød</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>590 g• kr 49,15/kg</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>kr 14,50</t>
+          <t>kr 29</t>
         </is>
       </c>
     </row>
@@ -2139,17 +2159,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Wc blått duck</t>
+          <t>Kjøttpålegg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>40 g• kr 397,50/kg</t>
+          <t>2x80 g• kr 218,75/kg</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>kr 15,90</t>
+          <t>kr 35</t>
         </is>
       </c>
     </row>
@@ -2161,17 +2181,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pariseragurker</t>
+          <t>Kjøttdeig uten salt og vann</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>580 g•kr 34,31/kg</t>
+          <t>400 g•kr 144,75/kg</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 57,90</t>
         </is>
       </c>
     </row>
@@ -2183,12 +2203,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hjemmelaget rødkål</t>
+          <t>Julebrus uten sukker</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>450 g•kr 33,11/kg</t>
+          <t>1,5 l•kr 9,93/l</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2205,7 +2225,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Laksefilet u/skinn</t>
+          <t>Laksefilet uten skinn</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2227,17 +2247,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kjøttdeig u/salt og vann</t>
+          <t>Pariseragurker</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>400 g•kr 144,75/kg</t>
+          <t>580 g•kr 34,31/kg</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>kr 57,90</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -2249,17 +2269,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fiskekaker</t>
+          <t>Stroganoff</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>450 g•kr 133,11/kg</t>
+          <t>500 g•kr 78/kg</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>kr 59,90</t>
+          <t>kr 39</t>
         </is>
       </c>
     </row>
@@ -2271,17 +2291,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lofotburger</t>
+          <t>Thaisuppe</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>500 g•kr 198/kg</t>
+          <t>1 l•kr 49/l</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>kr 99</t>
+          <t>kr 49</t>
         </is>
       </c>
     </row>
@@ -2293,13 +2313,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tannbørste</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>Grana padano</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>200 g•kr 297/kg</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>kr 11,90</t>
+          <t>kr 59,40</t>
         </is>
       </c>
     </row>
@@ -2311,13 +2335,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Bomullpads</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>Lutefiskbacon</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>250 g•kr 115,60/kg</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>kr 25,40</t>
+          <t>kr 28,90</t>
         </is>
       </c>
     </row>
@@ -2329,13 +2357,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Boxer</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>Scampi</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>270 g•kr 255,56/kg</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>kr 249</t>
+          <t>kr 69</t>
         </is>
       </c>
     </row>
@@ -2347,17 +2379,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Julebrus u/sukker</t>
+          <t>Pizzabunn xxl</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1,5 l•kr 9,93/l</t>
+          <t>550 g•kr 48,91/kg</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 26,90</t>
         </is>
       </c>
     </row>
@@ -2369,17 +2401,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Julepølse kokt</t>
+          <t>Kjøttboller</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>400 g•kr 99,75/kg</t>
+          <t>120 g•kr 282,50/kg</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>kr 39,90</t>
+          <t>kr 33,90</t>
         </is>
       </c>
     </row>
@@ -2391,17 +2423,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Medisterkaker</t>
+          <t>Pizzasaus</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>800 g•kr 99,88/kg</t>
+          <t>180 g•kr 88,33/kg</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>kr 79,90</t>
+          <t>kr 15,90</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2445,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Pærer</t>
+          <t>Hjemmelaget surkål</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1 kg• kr 29,90/kg</t>
+          <t>450 g• kr 33,11/kg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 14,90</t>
         </is>
       </c>
     </row>
@@ -2435,17 +2467,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Gulrot</t>
+          <t>Hjemmelaget rødkål</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>400 g• kr 24,75/kg</t>
+          <t>450 g• kr 33,11/kg</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>kr 9,90</t>
+          <t>kr 14,90</t>
         </is>
       </c>
     </row>
@@ -2457,17 +2489,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ruccula, babyspinat, babyleaf- og feldsalat mix</t>
+          <t>Laksefilet u/skinn</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>65 g• kr 198,46/kg</t>
+          <t>4x125 g• kr 238/kg</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>kr 12,90</t>
+          <t>kr 119</t>
         </is>
       </c>
     </row>
@@ -2479,17 +2511,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Juleskinke med svor</t>
+          <t>Lapskaus</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1 kg• kr 149/kg</t>
+          <t>1 kg• kr 59/kg</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>kr 149</t>
+          <t>kr 59</t>
         </is>
       </c>
     </row>
@@ -2501,17 +2533,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Vossakorv</t>
+          <t>Tagliatelle</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>350 g• kr 114,00/kg</t>
+          <t>250 g• kr 87,60/kg</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>kr 39,90</t>
+          <t>kr 21,90</t>
         </is>
       </c>
     </row>
@@ -2523,17 +2555,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Grov sennep</t>
+          <t>Lutefisk av torsk</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>275 g• kr 89,82/kg</t>
+          <t>1-1,5 kg• maks kr 159/kg</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>kr 24,70</t>
+          <t>kr 159</t>
         </is>
       </c>
     </row>
@@ -2545,17 +2577,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Melis</t>
+          <t>Pepperoni</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>500 g• kr 42,80/kg</t>
+          <t>70 g• kr 377,14/kg</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>kr 21,40</t>
+          <t>kr 26,40</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2599,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Grøtris</t>
+          <t>Lofotburger</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>800 g• kr 46,13/kg</t>
+          <t>500 g• kr 198/kg</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>kr 36,90</t>
+          <t>kr 99</t>
         </is>
       </c>
     </row>
@@ -2589,17 +2621,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Gresk yoghurt</t>
+          <t>Kjøttdeig u/salt og vann</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>150 g• kr 99,33/kg</t>
+          <t>400 g• kr 144,75/kg</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 57,90</t>
         </is>
       </c>
     </row>
@@ -2611,17 +2643,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Melange margarin</t>
+          <t>Fiskekaker</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>500 g• kr 58,60/kg</t>
+          <t>450 g• kr 133,11/kg</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>kr 29,30</t>
+          <t>kr 59,90</t>
         </is>
       </c>
     </row>
@@ -2633,17 +2665,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kyllingbacon</t>
+          <t>Boblevann</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>140 g• kr 213,57/kg</t>
+          <t>4x1,5 l• kr 5/l</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -2655,12 +2687,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Pariseragurker</t>
+          <t>Små gule poteter</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>580 g• kr 34,31/kg</t>
+          <t>900 g• kr 22,11/kg</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2677,17 +2709,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Hjemmelaget surkål</t>
+          <t>Tøymykner</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>450 g• kr 33,11/kg</t>
+          <t>1 l• kr 26,90/l</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 26,90</t>
         </is>
       </c>
     </row>
@@ -2699,17 +2731,13 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hjemmelaget rødkål</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>450 g• kr 33,11/kg</t>
-        </is>
-      </c>
+          <t>Tannbørste</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 11,90</t>
         </is>
       </c>
     </row>
@@ -2721,17 +2749,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Laksefilet u/skinn</t>
+          <t>Håndsåpe</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4x125 g• kr 238/kg</t>
+          <t>300 ml• kr 43/l</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>kr 119</t>
+          <t>kr 12,90</t>
         </is>
       </c>
     </row>
@@ -2743,17 +2771,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Lutefisk av torsk</t>
+          <t>Julepølse</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1-1,5 kg• maks kr 159/kg</t>
+          <t>400 g• kr 112,25/kg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>kr 159</t>
+          <t>kr 44,90</t>
         </is>
       </c>
     </row>
@@ -2765,17 +2793,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Stroganoff</t>
+          <t>Vossakorv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>500 g• kr 78/kg</t>
+          <t>350 g• kr 114,00/kg</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>kr 39</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -2787,17 +2815,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Thaisuppe</t>
+          <t>Ribbesaus</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1 l• kr 49/l</t>
+          <t>220 ml• kr 90,45/l</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>kr 49</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -2809,17 +2837,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Farris/farris bris</t>
+          <t>Coca-cola u/sukker</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3x1,5 l• kr 10/l</t>
+          <t>4x1,5 l• kr 10,82/l</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>kr 45</t>
+          <t>kr 64,90</t>
         </is>
       </c>
     </row>
@@ -2831,17 +2859,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Boblevann</t>
+          <t>Pizzasaus</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>4x1,5 l• kr 5/l</t>
+          <t>180 ml• kr 82,78/l</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 14,90</t>
         </is>
       </c>
     </row>
@@ -2853,13 +2881,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Boxer</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>Mozzarella</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>200 g• kr 178,50/kg</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>kr 249</t>
+          <t>kr 35,70</t>
         </is>
       </c>
     </row>
@@ -2871,17 +2903,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sylte hel rund</t>
+          <t>Norvegia lettost</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1 kg• kr 139/kg</t>
+          <t>150 g• kr 166/kg</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>kr 139</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -2893,17 +2925,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Medisterkaker</t>
+          <t>Farris/farris bris</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>800 g• kr 99,88/kg</t>
+          <t>3x1,5 l• kr 10/l</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>kr 79,90</t>
+          <t>kr 45</t>
         </is>
       </c>
     </row>
@@ -2915,17 +2947,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Medisterkaker</t>
+          <t>Rømmedressing</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>400 g• kr 149,75/kg</t>
+          <t>125 g• kr 183,20/kg</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>kr 59,90</t>
+          <t>kr 22,90</t>
         </is>
       </c>
     </row>
@@ -2937,17 +2969,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Marsipan</t>
+          <t>Surkål</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>500 g• kr 58,80/kg</t>
+          <t>450 g• kr 48,67/kg</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>kr 29,40</t>
+          <t>kr 21,90</t>
         </is>
       </c>
     </row>
@@ -2959,17 +2991,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Surkål</t>
+          <t>Solbærsaft</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>450 g• kr 48,67/kg</t>
+          <t>0,9 l• kr 52,11/l</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>kr 21,90</t>
+          <t>kr 46,90</t>
         </is>
       </c>
     </row>
@@ -2981,17 +3013,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Solbærsaft</t>
+          <t>Tyttebærsyltetøy</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0,9 l• kr 52,11/l</t>
+          <t>960 g• kr 30,83/kg</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>kr 46,90</t>
+          <t>kr 29,60</t>
         </is>
       </c>
     </row>
@@ -3003,17 +3035,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tyttebærsyltetøy</t>
+          <t>Gresk yoghurt</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>960 g• kr 30,83/kg</t>
+          <t>150 g• kr 99,33/kg</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>kr 29,60</t>
+          <t>kr 14,90</t>
         </is>
       </c>
     </row>
@@ -3025,17 +3057,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Gresk yoghurt</t>
+          <t>Melange margarin</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>150 g• kr 99,33/kg</t>
+          <t>500 g• kr 58,60/kg</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 29,30</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3079,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Melange margarin</t>
+          <t>Salami</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>500 g• kr 58,60/kg</t>
+          <t>130 g• kr 253,08/kg</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>kr 29,30</t>
+          <t>kr 32,90</t>
         </is>
       </c>
     </row>
@@ -3069,17 +3101,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Salami</t>
+          <t>Makrell i tomat</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>130 g• kr 253,08/kg</t>
+          <t>110 g• kr 126,36/kg</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>kr 32,90</t>
+          <t>kr 13,90</t>
         </is>
       </c>
     </row>
@@ -3091,17 +3123,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Julebrus uten sukker</t>
+          <t>Tomatsuppe spicy</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1,5 l• kr 9,93/l</t>
+          <t>570 ml• kr 44,56/l</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 25,40</t>
         </is>
       </c>
     </row>
@@ -3113,17 +3145,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Laksefilet uten skinn</t>
+          <t>Tortilla</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4x125 g• kr 238/kg</t>
+          <t>320 g• kr 40,31/kg</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>kr 119</t>
+          <t>kr 12,90</t>
         </is>
       </c>
     </row>
@@ -3135,17 +3167,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Grana padano</t>
+          <t>Kyllingfilet</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>200 g• kr 297/kg</t>
+          <t>200 g• kr 199,50/kg</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>kr 59,40</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3189,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lutefiskbacon</t>
+          <t>Små gule poteter</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>250 g• kr 115,60/kg</t>
+          <t>900 g• kr 22,11/kg</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>kr 28,90</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -3179,17 +3211,13 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lutefisk av torsk</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>1-1,5 kg• maks kr 159/kg</t>
-        </is>
-      </c>
+          <t>Bomullpads</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>kr 159</t>
+          <t>kr 25,40</t>
         </is>
       </c>
     </row>
@@ -3201,17 +3229,13 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Marsipan</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>500 g• kr 58,80/kg</t>
-        </is>
-      </c>
+          <t>Boxer</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>kr 29,40</t>
+          <t>kr 249</t>
         </is>
       </c>
     </row>
@@ -3223,17 +3247,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Revet ost</t>
+          <t>Sylte halv rund</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>300 g• kr 154,67/kg</t>
+          <t>1 kg• kr 139/kg</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>kr 46,40</t>
+          <t>kr 139</t>
         </is>
       </c>
     </row>
@@ -3245,12 +3269,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Synnøve revet</t>
+          <t>Vossakorv</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>400 g• kr 99,75/kg</t>
+          <t>350 g• kr 114,00/kg</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3267,17 +3291,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Pepperoniboller</t>
+          <t>Coca-cola u/sukker</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>360 g• kr 158,06/kg</t>
+          <t>4x1,5 l• kr 10,82/l</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>kr 56,90</t>
+          <t>kr 64,90</t>
         </is>
       </c>
     </row>
@@ -3289,17 +3313,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Kyllingfilet</t>
+          <t>Pizzasaus</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>110 g• kr 271,82/kg</t>
+          <t>180 ml• kr 82,78/l</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 14,90</t>
         </is>
       </c>
     </row>
@@ -3311,17 +3335,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Kjøttdeig uten salt og vann</t>
+          <t>Mozzarella</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>400 g• kr 144,75/kg</t>
+          <t>200 g• kr 178,50/kg</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>kr 57,90</t>
+          <t>kr 35,70</t>
         </is>
       </c>
     </row>
@@ -3333,17 +3357,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Julebrus uten sukker</t>
+          <t>Spaghetti</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1,5 l• kr 9,93/l</t>
+          <t>450 g• kr 50,44/kg</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 22,70</t>
         </is>
       </c>
     </row>
@@ -3355,17 +3379,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Laksefilet uten skinn</t>
+          <t>Pizzasaus</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>4x125 g• kr 238/kg</t>
+          <t>180 g• kr 88,33/kg</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>kr 119</t>
+          <t>kr 15,90</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3401,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Grana padano</t>
+          <t>Rømmedressing</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>200 g• kr 297/kg</t>
+          <t>125 g• kr 183,20/kg</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>kr 59,40</t>
+          <t>kr 22,90</t>
         </is>
       </c>
     </row>
@@ -3399,17 +3423,13 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lutefiskbacon</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>250 g• kr 115,60/kg</t>
-        </is>
-      </c>
+          <t>Julestjerne</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>kr 28,90</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -3421,17 +3441,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lapskaus</t>
+          <t>Tøymykner</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1 kg• kr 59/kg</t>
+          <t>1 l• kr 26,90/l</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>kr 59</t>
+          <t>kr 26,90</t>
         </is>
       </c>
     </row>
@@ -3443,17 +3463,13 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fiskekaker</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>450 g• kr 133,11/kg</t>
-        </is>
-      </c>
+          <t>Tannbørste</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>kr 59,90</t>
+          <t>kr 11,90</t>
         </is>
       </c>
     </row>
@@ -3465,17 +3481,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Kokosmasse</t>
+          <t>Håndsåpe</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>250 g• kr 85,60/kg</t>
+          <t>300 ml• kr 43/l</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>kr 21,40</t>
+          <t>kr 12,90</t>
         </is>
       </c>
     </row>
@@ -3487,17 +3503,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ribbesaus</t>
+          <t>Julepølse kokt</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>220 ml• kr 90,45/l</t>
+          <t>400 g• kr 99,75/kg</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -3509,17 +3525,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Grov sennep</t>
+          <t>Medisterkaker</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>275 g• kr 89,82/kg</t>
+          <t>800 g• kr 99,88/kg</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>kr 24,70</t>
+          <t>kr 79,90</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3547,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Melis</t>
+          <t>Medisterkaker</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>500 g• kr 42,80/kg</t>
+          <t>400 g• kr 149,75/kg</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>kr 21,40</t>
+          <t>kr 59,90</t>
         </is>
       </c>
     </row>
@@ -3553,17 +3569,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Pepperoniboller</t>
+          <t>Sylte hel rund</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>360 g• kr 158,06/kg</t>
+          <t>1 kg• kr 139/kg</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>kr 56,90</t>
+          <t>kr 139</t>
         </is>
       </c>
     </row>
@@ -3575,17 +3591,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Go' morgen yoghurt</t>
+          <t>Juleskinke med svor</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>190 g• kr 62,63/kg</t>
+          <t>1 kg• kr 149/kg</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>kr 11,90</t>
+          <t>kr 149</t>
         </is>
       </c>
     </row>
@@ -3597,17 +3613,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Kyllingfilet</t>
+          <t>Juleskinke</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>110 g• kr 271,82/kg</t>
+          <t>1 kg• kr 179/kg</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 179</t>
         </is>
       </c>
     </row>
@@ -3619,17 +3635,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Tortilla</t>
+          <t>Ribbesaus</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>320 g• kr 40,31/kg</t>
+          <t>220 ml• kr 90,45/l</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>kr 12,90</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3657,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Kjøttdeig uten salt og vann</t>
+          <t>Kokesjokolade</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>400 g• kr 144,75/kg</t>
+          <t>100 g• kr 118/kg</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>kr 57,90</t>
+          <t>kr 11,80</t>
         </is>
       </c>
     </row>
@@ -3663,17 +3679,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Lapskaus</t>
+          <t>Sukker</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1 kg• kr 59/kg</t>
+          <t>1 kg• kr 26,90/kg</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>kr 59</t>
+          <t>kr 26,90</t>
         </is>
       </c>
     </row>
@@ -3685,17 +3701,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Stroganoff</t>
+          <t>Marsipan</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>500 g• kr 78/kg</t>
+          <t>500 g• kr 58,80/kg</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>kr 39</t>
+          <t>kr 29,40</t>
         </is>
       </c>
     </row>
@@ -3707,17 +3723,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Thaisuppe</t>
+          <t>Revet ost</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1 l• kr 49/l</t>
+          <t>300 g• kr 154,67/kg</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>kr 49</t>
+          <t>kr 46,40</t>
         </is>
       </c>
     </row>
@@ -3729,17 +3745,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ribbesaus</t>
+          <t>Sylte halv rund</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>220 ml• kr 90,45/l</t>
+          <t>1 kg• kr 139/kg</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 139</t>
         </is>
       </c>
     </row>
@@ -3751,17 +3767,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Coca-cola u/sukker</t>
+          <t>Kokosmasse</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>4x1,5 l• kr 10,82/l</t>
+          <t>250 g• kr 85,60/kg</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>kr 64,90</t>
+          <t>kr 21,40</t>
         </is>
       </c>
     </row>
@@ -3773,17 +3789,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Kjøttboller</t>
+          <t>Revet ost</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>360 g• kr 158,06/kg</t>
+          <t>300 g• kr 154,67/kg</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>kr 56,90</t>
+          <t>kr 46,40</t>
         </is>
       </c>
     </row>
@@ -3795,17 +3811,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Hverdagsbrød</t>
+          <t>Synnøve revet</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>750 g• kr 26,53/kg</t>
+          <t>400 g• kr 99,75/kg</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -3817,17 +3833,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Go' morgen yoghurt</t>
+          <t>Pepperoniboller</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>190 g• kr 62,63/kg</t>
+          <t>360 g• kr 158,06/kg</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>kr 11,90</t>
+          <t>kr 56,90</t>
         </is>
       </c>
     </row>
@@ -3861,17 +3877,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Kyllingfilet</t>
+          <t>Tomatsuppe spicy</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>200 g• kr 199,50/kg</t>
+          <t>570 ml• kr 44,56/l</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>kr 39,90</t>
+          <t>kr 25,40</t>
         </is>
       </c>
     </row>
@@ -4161,13 +4177,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Pak choy</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
+          <t>KYLLINGFILET STRIMLET</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>400 g• kr 149,75/kg</t>
+        </is>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 59,90</t>
         </is>
       </c>
     </row>
@@ -4179,17 +4199,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Klenning/Gifflar</t>
+          <t>NORSKE EPLER</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>260-300 g• maks kr 95,77/kg</t>
+          <t>1 kg• kr 29,90/kg</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 29,90</t>
         </is>
       </c>
     </row>
@@ -4201,17 +4221,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Smash/Laban seigmenn</t>
+          <t>NYSTEKT SPELTBRØD</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>200-260 g• maks kr 174,50/kg</t>
+          <t>660 g• kr 45,45/kg</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>kr 34,90</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -4223,17 +4243,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Kyllingfilet strimlet</t>
+          <t>PEPSI MAX 8PK</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>400 g• kr 149,75/kg</t>
+          <t>8x1,5 l• kr 9,08/l</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>kr 59,90</t>
+          <t>kr 109</t>
         </is>
       </c>
     </row>
@@ -4245,17 +4265,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Torskefi let naturell</t>
+          <t>NORVEGIA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1 kg• kr 229/kg</t>
+          <t>1 kg• kr 99/kg</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>kr 229</t>
+          <t>kr 99</t>
         </is>
       </c>
     </row>
@@ -4267,17 +4287,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Fitness/Cheerios</t>
+          <t>Biff stroganoff</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>375 g• kr 106,40/kg</t>
+          <t>100 g• kr 179/kg</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>kr 39,90</t>
+          <t>kr 17,90</t>
         </is>
       </c>
     </row>
@@ -4289,17 +4309,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Pulled pork</t>
+          <t>Småpoteter</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>500 g• kr 178/kg</t>
+          <t>400-650 g• maks kr 62,25/kg</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>kr 89</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -4311,17 +4331,13 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ekte revet ost</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>250-300 g• maks kr 179,60/kg</t>
-        </is>
-      </c>
+          <t>Brokkoli</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>kr 44,90</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -4333,17 +4349,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Bæråscammen - hvitmuggost</t>
+          <t>Potetmos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>200 g• kr 399,50/kg</t>
+          <t>100 g• kr 99/kg</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>kr 79,90</t>
+          <t>kr 9,90</t>
         </is>
       </c>
     </row>
@@ -4355,17 +4371,13 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Den lille nøttefabrikken</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>170-350 g• maks kr 293,53/kg</t>
-        </is>
-      </c>
+          <t>Roser</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>kr 49,90</t>
+          <t>kr 99</t>
         </is>
       </c>
     </row>
@@ -4377,17 +4389,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Parmaskinke</t>
+          <t>Ben&amp;Jerry’s</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>70 g• kr 784,29/kg</t>
+          <t>427-465 ml• maks kr 175,41/l</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>kr 54,90</t>
+          <t>kr 74,90</t>
         </is>
       </c>
     </row>
@@ -4399,17 +4411,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Delikat salater</t>
+          <t>Nystekt krokanwiener</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>200 g• kr 164,50/kg</t>
+          <t>120 g• kr 125,00/kg</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>kr 32,90</t>
+          <t>kr 15</t>
         </is>
       </c>
     </row>
@@ -4421,17 +4433,13 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Fersk oliven</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>150 g• kr 332,67/kg</t>
-        </is>
-      </c>
+          <t>Pak choy</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>kr 49,90</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -4443,17 +4451,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Spekepølse fra Ask Spekehus</t>
+          <t>Klenning/Gifflar</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>250 g• kr 396/kg</t>
+          <t>260-300 g• maks kr 95,77/kg</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>kr 99</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -4465,17 +4473,13 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Kyllingkjøttdeig</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>400 g•kr 99,75/kg</t>
-        </is>
-      </c>
+          <t>Novemberkaktus</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>kr 39,90</t>
+          <t>kr 69,90</t>
         </is>
       </c>
     </row>
@@ -4487,17 +4491,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Røkt svinekam</t>
+          <t>Fløtemysost/ Gudbrandsdalsost</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1 kg•kr 89/kg</t>
+          <t>1 kg•kr 89,90/kg</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>kr 89</t>
+          <t>kr 89,90</t>
         </is>
       </c>
     </row>
@@ -4509,17 +4513,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Bacon &amp; Ost Knäcker</t>
+          <t>Julekake</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>250 g•kr 159,60/kg</t>
+          <t>600 g•kr 49,83/kg</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>kr 39,90</t>
+          <t>kr 29,90</t>
         </is>
       </c>
     </row>
@@ -4531,17 +4535,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Pankopanert torsk</t>
+          <t>Yoghurt</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>500 g•kr 178/kg</t>
+          <t>500 g•kr 49,80/kg</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>kr 89</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -4553,17 +4557,13 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Kyllingvinger</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>500 g•kr 99,80/kg</t>
-        </is>
-      </c>
+          <t>Oksekarbonader</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>kr 49,90</t>
+          <t>kr 14,90</t>
         </is>
       </c>
     </row>
@@ -4575,17 +4575,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Brimis Middagskaker</t>
+          <t>Julebakst</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>565 g•kr 88,32/kg</t>
+          <t>4x25-34 g•maks kr 250/kg</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>kr 49,90</t>
+          <t>kr 25</t>
         </is>
       </c>
     </row>
@@ -4597,17 +4597,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Grønn &amp; Frisk salat i beger</t>
+          <t>Ferdigretter fra Findus</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>225-255 g•maks kr 132,89/kg</t>
+          <t>540-600 g•maks kr 92,41/kg</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 49,90</t>
         </is>
       </c>
     </row>
@@ -4619,13 +4619,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Novemberkaktus</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr"/>
+          <t>Piel de sapo/ Honningmelon</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1 kg•kr 29,90/kg</t>
+        </is>
+      </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>kr 69,90</t>
+          <t>kr 29,90</t>
         </is>
       </c>
     </row>
@@ -4637,17 +4641,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Søt spisspaprika</t>
+          <t>Grønn &amp; Frisk salat i beger</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>300 g•kr 66,33/kg</t>
+          <t>225-255 g•maks kr 132,89/kg</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 29,90</t>
         </is>
       </c>
     </row>
@@ -4659,17 +4663,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Avokado 2-pk</t>
+          <t>Julius Favorittbrød/ Hverdagsgrovt/ Norsk Fjellbrød</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2 stykker•kr 14,95/hver</t>
+          <t>750 g•kr 26,53/kg</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -4681,17 +4685,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Piel de sapo/ Honningmelon</t>
+          <t>Søt spisspaprika</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1 kg•kr 29,90/kg</t>
+          <t>300 g•kr 66,33/kg</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -4703,13 +4707,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Persimon</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
+          <t>Avokado 2-pk</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2 stykker•kr 14,95/hver</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>kr 9,90</t>
+          <t>kr 29,90</t>
         </is>
       </c>
     </row>
@@ -4721,17 +4729,13 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Julius Favorittbrød/ Hverdagsgrovt/ Norsk Fjellbrød</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>750 g• kr 26,53/kg</t>
-        </is>
-      </c>
+          <t>Persimon</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 9,90</t>
         </is>
       </c>
     </row>
@@ -4743,17 +4747,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Fløtemysost/ Gudbrandsdalsost</t>
+          <t>Kyllingkjøttdeig</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1 kg• kr 89,90/kg</t>
+          <t>400 g• kr 99,75/kg</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>kr 89,90</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -4765,17 +4769,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Julekake</t>
+          <t>Røkt svinekam</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>600 g• kr 49,83/kg</t>
+          <t>1 kg• kr 89/kg</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 89</t>
         </is>
       </c>
     </row>
@@ -4787,17 +4791,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pringles</t>
+          <t>Norske epler</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>200 g• kr 134,50/kg</t>
+          <t>1 kg• kr 24,90/kg</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>kr 26,90</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -4809,17 +4813,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Julebakst</t>
+          <t>Kyllingfilet</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>4x25-34 g• maks kr 250/kg</t>
+          <t>2 kg• kr 89,50/kg</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>kr 25</t>
+          <t>kr 179</t>
         </is>
       </c>
     </row>
@@ -4831,17 +4835,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Melkehjerter</t>
+          <t>Bacon &amp; Ost Knäcker</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>130 g• kr 268,46/kg</t>
+          <t>250 g• kr 159,60/kg</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>kr 34,90</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -4853,17 +4857,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Farsdagskake</t>
+          <t>Pankopanert torsk</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>425 g• kr 211,53/kg</t>
+          <t>500 g• kr 178/kg</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>kr 89,90</t>
+          <t>kr 89</t>
         </is>
       </c>
     </row>
@@ -4875,17 +4879,13 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Plumbo</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>550-630 g• maks kr 118/kg</t>
-        </is>
-      </c>
+          <t>Mango</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>kr 64,90</t>
+          <t>kr 29,90</t>
         </is>
       </c>
     </row>
@@ -4897,17 +4897,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Norske epler</t>
+          <t>Kyllingvinger</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1 kg• kr 24,90/kg</t>
+          <t>500 g• kr 99,80/kg</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 49,90</t>
         </is>
       </c>
     </row>
@@ -4919,17 +4919,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Kyllingfilet</t>
+          <t>Brimis Middagskaker</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2 kg• kr 89,50/kg</t>
+          <t>565 g• kr 88,32/kg</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>kr 179</t>
+          <t>kr 49,90</t>
         </is>
       </c>
     </row>
@@ -4941,17 +4941,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ferdigretter fra Findus</t>
+          <t>Pringles</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>540-600 g• maks kr 92,41/kg</t>
+          <t>200 g• kr 134,50/kg</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>kr 49,90</t>
+          <t>kr 26,90</t>
         </is>
       </c>
     </row>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Oksekarbonader</t>
+          <t>Lunsjkaker</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -4981,13 +4981,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Lunsjkaker</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr"/>
+          <t>Plumbo</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>550-630 g• maks kr 118/kg</t>
+        </is>
+      </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 64,90</t>
         </is>
       </c>
     </row>
@@ -5017,17 +5021,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Yoghurt</t>
+          <t>Kyllingvinger</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>500 g• kr 49,80/kg</t>
+          <t>500 g• kr 99,80/kg</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 49,90</t>
         </is>
       </c>
     </row>
@@ -5039,17 +5043,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Farsdagskake</t>
+          <t>Yoghurt</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>900 g• kr 194,33/kg</t>
+          <t>500 g• kr 49,80/kg</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>kr 174,90</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -5061,17 +5065,13 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Dots</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>4x18-22 g• maks kr 347,22/kg</t>
-        </is>
-      </c>
+          <t>Oksekarbonader</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>kr 25</t>
+          <t>kr 14,90</t>
         </is>
       </c>
     </row>
@@ -5083,17 +5083,13 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sheba</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>85 g• kr 116,47/kg</t>
-        </is>
-      </c>
+          <t>Lunsjkaker</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>kr 9,90</t>
+          <t>kr 14,90</t>
         </is>
       </c>
     </row>
@@ -5105,12 +5101,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Hatting møllehjul, grove rundstykker, gourmetstykker og veggen spelt</t>
+          <t>Chili cheese nuggets, mozzarella sticks og løkringer</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>3x402 g•kr 82,92/kg</t>
+          <t>3 stykker•kr 33,33/hver</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5127,17 +5123,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Skyrvarianter 160/130 g</t>
+          <t>Noodle bowl tasty thai og cheeky chili</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>3x130-160 g•maks kr 128,21/kg</t>
+          <t>6x65 g•kr 125,64/kg</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>kr 50</t>
+          <t>kr 49</t>
         </is>
       </c>
     </row>
@@ -5149,17 +5145,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Poteter pose</t>
+          <t>Pasta linguine, penne, makaroni og tagliatelle</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>5 kg•kr 8/kg</t>
+          <t>2 stykker•kr 15/hver</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -5171,17 +5167,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Risgrøt</t>
+          <t>Torsk fylt</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>970 g•kr 29,90/kg</t>
+          <t>400 g•kr 137,50/kg</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>kr 29</t>
+          <t>kr 55</t>
         </is>
       </c>
     </row>
@@ -5193,17 +5189,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Fiskeburger 86% fisk</t>
+          <t>Risgrøt</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>250 g•kr 160/kg</t>
+          <t>970 g•kr 29,90/kg</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 29</t>
         </is>
       </c>
     </row>
@@ -5215,17 +5211,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ramløsa citrus og pære</t>
+          <t>Løvbiff</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>20x0,33 l•kr 15/l</t>
+          <t>6x100 g•kr 131,67/kg</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>kr 99</t>
+          <t>kr 79</t>
         </is>
       </c>
     </row>
@@ -5237,17 +5233,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Coca-cola u/sukker</t>
+          <t>Ytrefilet bit av storfe</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>6x1,5 l•kr 7,77/l</t>
+          <t>1 kg•kr 299/kg</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>kr 69,90</t>
+          <t>kr 299</t>
         </is>
       </c>
     </row>
@@ -5259,17 +5255,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Fiberbrød funkygine</t>
+          <t>Ostesnitzel</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>700 g•kr 42,86/kg</t>
+          <t>800 g•kr 73,75/kg</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 59</t>
         </is>
       </c>
     </row>
@@ -5281,12 +5277,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Chili cheese nuggets, mozzarella sticks og løkringer</t>
+          <t>Hatting møllehjul, grove rundstykker, gourmetstykker og veggen spelt</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>3 stykker•kr 33,33/hver</t>
+          <t>3x402 g•kr 82,92/kg</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5303,17 +5299,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Burgers</t>
+          <t>Fiberbrød funkygine</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2x120 g•kr 208,33/kg</t>
+          <t>700 g•kr 42,86/kg</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>kr 50</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -5325,17 +5321,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Noodle bowl tasty thai og cheeky chili</t>
+          <t>Coca-cola u/sukker</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>6x65 g•kr 125,64/kg</t>
+          <t>6x1,5 l•kr 7,77/l</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>kr 49</t>
+          <t>kr 69,90</t>
         </is>
       </c>
     </row>
@@ -5347,17 +5343,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Pasta linguine, penne, makaroni og tagliatelle</t>
+          <t>Panert sei</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2 stykker•kr 15/hver</t>
+          <t>230 g•kr 173,91/kg</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -5369,17 +5365,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Sjokomelk</t>
+          <t>Poteter pose</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>8x250 ml• kr 29,95/l</t>
+          <t>5 kg• kr 8/kg</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>kr 59,90</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -5391,17 +5387,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Løk i nett</t>
+          <t>Finnbiff av reinsdyr</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2 kg• kr 12,50/kg</t>
+          <t>400 g• kr 297,50/kg</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>kr 25</t>
+          <t>kr 119</t>
         </is>
       </c>
     </row>
@@ -5413,17 +5409,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Tomater hakkede chili, hvitløk, urter og naturell</t>
+          <t>Gilde bacon u/svor</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>4x390 g• kr 19,23/kg</t>
+          <t>400 g• kr 222,50/kg</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 89</t>
         </is>
       </c>
     </row>
@@ -5435,12 +5431,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Lion 10-pk</t>
+          <t>Go' morgen yoghurt vanilje og skogsbær</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>240 g• kr 204,17/kg</t>
+          <t>6x190 g• kr 42,98/kg</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5457,17 +5453,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Coca-cola</t>
+          <t>Burgers</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>6x1,5 l• kr 11/l</t>
+          <t>2x120 g• kr 208,33/kg</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>kr 99</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -5479,17 +5475,13 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Gilde bacon u/svor</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>400 g• kr 222,50/kg</t>
-        </is>
-      </c>
+          <t>Sprøbakt torsk og fiskegrateng</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>kr 89</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -5501,17 +5493,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Go' morgen yoghurt vanilje og skogsbær</t>
+          <t>Smoothies bendit</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>6x190 g• kr 42,98/kg</t>
+          <t>4x250 ml• kr 50/l</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>kr 49</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -5523,13 +5515,13 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Sprøbakt torsk og fiskegrateng</t>
+          <t>Toro pannekake og vaffelmix</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>kr 50</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -5541,17 +5533,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Vårruller m/sweet chili dip</t>
+          <t>Skyrvarianter 160/130 g</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>230 g• kr 195,65/kg</t>
+          <t>3x130-160 g• maks kr 128,21/kg</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>kr 45</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -5563,17 +5555,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Løvbiff</t>
+          <t>Potetgull rifla</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>6x100 g• kr 131,67/kg</t>
+          <t>370 g• kr 132,43/kg</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>kr 79</t>
+          <t>kr 49</t>
         </is>
       </c>
     </row>
@@ -5585,17 +5577,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Finnbiff av reinsdyr</t>
+          <t>Sjokomelk</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>400 g• kr 297,50/kg</t>
+          <t>8x250 ml• kr 29,95/l</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>kr 119</t>
+          <t>kr 59,90</t>
         </is>
       </c>
     </row>
@@ -5607,17 +5599,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Norvegia duo 2 x 1 kg original og lett</t>
+          <t>Løk i nett</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1 kg• kr 99/kg</t>
+          <t>2 kg• kr 12,50/kg</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>kr 99</t>
+          <t>kr 25</t>
         </is>
       </c>
     </row>
@@ -5629,17 +5621,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Panert sei</t>
+          <t>Go' morgen yoghurt vanilje og skogsbær</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>230 g• kr 173,91/kg</t>
+          <t>6x190 g• kr 42,98/kg</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 49</t>
         </is>
       </c>
     </row>
@@ -5651,17 +5643,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ytrefilet bit av storfe</t>
+          <t>Panert sei</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1 kg• kr 299/kg</t>
+          <t>230 g• kr 173,91/kg</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>kr 299</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -5673,17 +5665,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ostesnitzel</t>
+          <t>Løk i nett</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>800 g• kr 73,75/kg</t>
+          <t>2 kg• kr 12,50/kg</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>kr 59</t>
+          <t>kr 25</t>
         </is>
       </c>
     </row>
@@ -5695,17 +5687,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Smoothies bendit</t>
+          <t>Tomater hakkede chili, hvitløk, urter og naturell</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>4x250 ml• kr 50/l</t>
+          <t>4x390 g• kr 19,23/kg</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>kr 50</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -5717,13 +5709,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Toro pannekake og vaffelmix</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr"/>
+          <t>Lion 10-pk</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>240 g• kr 204,17/kg</t>
+        </is>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>kr 20</t>
+          <t>kr 49</t>
         </is>
       </c>
     </row>
@@ -5735,39 +5731,35 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Potetgull rifla</t>
+          <t>Coca-cola</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>370 g• kr 132,43/kg</t>
+          <t>6x1,5 l• kr 11/l</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>kr 49</t>
+          <t>kr 99</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Bunnpris</t>
+          <t>Coop-Extra</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Torsk fylt</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>400 g• kr 137,50/kg</t>
-        </is>
-      </c>
+          <t>GILLETTE BARBERHØVEL</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>kr 55</t>
+          <t>kr 139</t>
         </is>
       </c>
     </row>
@@ -5779,13 +5771,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>LAMBI TOALETTPAPIR 24 PK</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr"/>
+          <t>XTRA FRUKTKARAMELLER</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>350 g•kr 125,71/kg</t>
+        </is>
+      </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>kr 119</t>
+          <t>kr 44</t>
         </is>
       </c>
     </row>
@@ -5797,17 +5793,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>XTRA KARBONADER</t>
+          <t>COOP BRUS</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1 kg•kr 69,90/kg</t>
+          <t>2x1,5 l•kr 8,17/l</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>kr 69,90</t>
+          <t>kr 24,50</t>
         </is>
       </c>
     </row>
@@ -5819,17 +5815,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>XTRA SURKÅL</t>
+          <t>COOP JASMINRIS BOIL-IN-BAG</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>450 g•kr 28,67/kg</t>
+          <t>1 kg•kr 20,70/kg</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>kr 12,90</t>
+          <t>kr 20,70</t>
         </is>
       </c>
     </row>
@@ -5841,13 +5837,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NUTRISSE HÅRFARGE</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr"/>
+          <t>FINDUS WOK CLASSIC</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>480 g•kr 91,46/kg</t>
+        </is>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>kr 79</t>
+          <t>kr 43,90</t>
         </is>
       </c>
     </row>
@@ -5859,13 +5859,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>GILLETTE BARBERHØVEL</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr"/>
+          <t>COOP SPINAT/BABYSPINAT</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2x100-200 g•maks kr 225/kg</t>
+        </is>
+      </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>kr 139</t>
+          <t>kr 45</t>
         </is>
       </c>
     </row>
@@ -5877,17 +5881,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>COOP SPINAT/BABYSPINAT</t>
+          <t>COOP MORGENSTYKKER 8 PK</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2x100-200 g•maks kr 225/kg</t>
+          <t>2x560 g•kr 49,11/kg</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>kr 45</t>
+          <t>kr 55</t>
         </is>
       </c>
     </row>
@@ -5899,17 +5903,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>COOP FRYSEPOSER</t>
+          <t>COOP WOKMIX/RÅKOST/GRØNNKÅL</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2 stykker•kr 12,50/hver</t>
+          <t>2x150-300 g•maks kr 133,33/kg</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>kr 25</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -5921,17 +5925,13 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>COOP PUFFIES/CRISPIES</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>2x180-200 g•maks kr 133,33/kg</t>
-        </is>
-      </c>
+          <t>PIERRE ROBERT BOMULLBOXER 3 PK</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
-          <t>kr 48</t>
+          <t>kr 249</t>
         </is>
       </c>
     </row>
@@ -5943,17 +5943,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>COOP MARSIPANKAKE</t>
+          <t>XTRA TORTELLINI</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>800 g•kr 223,75/kg</t>
+          <t>500 g•kr 80,80/kg</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>kr 179</t>
+          <t>kr 40,40</t>
         </is>
       </c>
     </row>
@@ -5965,17 +5965,13 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>PATAK’S SAUCE</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>2x450 g•kr 72,22/kg</t>
-        </is>
-      </c>
+          <t>NUTRISSE HÅRFARGE</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
-          <t>kr 65</t>
+          <t>kr 79</t>
         </is>
       </c>
     </row>
@@ -5987,17 +5983,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TINE YOGHURT SITRON &amp; LIME</t>
+          <t>VIVERA CRISPY SNITZEL</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2x1 000 g•kr 27,50/kg</t>
+          <t>200 g•kr 195,60/kg</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>kr 55</t>
+          <t>kr 39,12</t>
         </is>
       </c>
     </row>
@@ -6009,17 +6005,13 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>HEAD AND SHOULDERS SHAMPOO</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>400 ml•kr 149,75/l</t>
-        </is>
-      </c>
+          <t>XTRA BATTERIER</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
-          <t>kr 59,90</t>
+          <t>kr 24,20</t>
         </is>
       </c>
     </row>
@@ -6031,17 +6023,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>XTRA TORTELLINI</t>
+          <t>PALMOLIVE DUSJSÅPE MENN</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>500 g• kr 80,80/kg</t>
+          <t>2x500 ml• kr 45/l</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>kr 40,40</t>
+          <t>kr 45</t>
         </is>
       </c>
     </row>
@@ -6053,13 +6045,13 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NUTRISSE HÅRFARGE</t>
+          <t>FARSDAG BUKETT</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr">
         <is>
-          <t>kr 79</t>
+          <t>kr 179</t>
         </is>
       </c>
     </row>
@@ -6071,17 +6063,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>COOP STORFEKJØTT</t>
+          <t>COOP CHIPS</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>300 g• kr 221,07/kg</t>
+          <t>140-250 g• maks kr 257,14/kg</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>kr 66,32</t>
+          <t>kr 36</t>
         </is>
       </c>
     </row>
@@ -6093,17 +6085,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>COOP PUFFIES/CRISPIES</t>
+          <t>XTRA KYLLING VINGEKLUBBER</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2x180-200 g• maks kr 133,33/kg</t>
+          <t>2 kg• kr 54,90/kg</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>kr 48</t>
+          <t>kr 109,80</t>
         </is>
       </c>
     </row>
@@ -6115,13 +6107,13 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>XTRA LED-LYSPÆRER</t>
+          <t>GILLETTE BARBERHØVEL</t>
         </is>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr">
         <is>
-          <t>kr 20</t>
+          <t>kr 139</t>
         </is>
       </c>
     </row>
@@ -6133,17 +6125,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>L’OR ESPRESSO CAPS</t>
+          <t>COOP EGGNUDLER</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2x10 stykker• kr 3,50/hver</t>
+          <t>250 g• kr 51,60/kg</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>kr 70</t>
+          <t>kr 12,90</t>
         </is>
       </c>
     </row>
@@ -6155,13 +6147,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TEFAL® DAILY COOK STEKEPANNE 28 CM</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr"/>
+          <t>COOP JASMINRIS BOIL-IN-BAG</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>1 kg• kr 20,70/kg</t>
+        </is>
+      </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>kr 299</t>
+          <t>kr 20,70</t>
         </is>
       </c>
     </row>
@@ -6173,17 +6169,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>PATAK’S SAUCE</t>
+          <t>FINDUS WOK CLASSIC</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2x450 g• kr 72,22/kg</t>
+          <t>480 g• kr 91,46/kg</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>kr 65</t>
+          <t>kr 43,90</t>
         </is>
       </c>
     </row>
@@ -6195,17 +6191,13 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FINDUS WOK CLASSIC</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>480 g• kr 91,46/kg</t>
-        </is>
-      </c>
+          <t>DRIKKETIPS!</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr">
         <is>
-          <t>kr 43,90</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -6217,17 +6209,17 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>COOP MARSIPANKAKE</t>
+          <t>COOP CHOCO PEANUTS/LENSES</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>800 g• kr 223,75/kg</t>
+          <t>2x180 g• kr 125/kg</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>kr 179</t>
+          <t>kr 45</t>
         </is>
       </c>
     </row>
@@ -6239,17 +6231,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>DORITOS NACHO CHEESE</t>
+          <t>PATAK’S SAUCE</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2x170 g• kr 147,06/kg</t>
+          <t>2x450 g• kr 72,22/kg</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>kr 50</t>
+          <t>kr 65</t>
         </is>
       </c>
     </row>
@@ -6261,17 +6253,13 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>COOP CHIPS</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>140-250 g• maks kr 257,14/kg</t>
-        </is>
-      </c>
+          <t>NORTHPEAK UNDERTØY</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr">
         <is>
-          <t>kr 36</t>
+          <t>kr 149</t>
         </is>
       </c>
     </row>
@@ -6283,17 +6271,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>XTRA KARBONADER</t>
+          <t>COOP MARSIPANKAKE</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>1 kg• kr 69,90/kg</t>
+          <t>800 g• kr 223,75/kg</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>kr 69,90</t>
+          <t>kr 179</t>
         </is>
       </c>
     </row>
@@ -6305,17 +6293,13 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>XTRA SURKÅL</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>450 g• kr 28,67/kg</t>
-        </is>
-      </c>
+          <t>LAMBI TOALETTPAPIR 24 PK</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
-          <t>kr 12,90</t>
+          <t>kr 119</t>
         </is>
       </c>
     </row>
@@ -6327,17 +6311,13 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>XTRA KYLLING VINGEKLUBBER</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>2 kg• kr 54,90/kg</t>
-        </is>
-      </c>
+          <t>PIERRE ROBERT BOMULLBOXER 3 PK</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr">
         <is>
-          <t>kr 109,80</t>
+          <t>kr 249</t>
         </is>
       </c>
     </row>
@@ -6349,17 +6329,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>DOBBEL DUSCH</t>
+          <t>XTRA TORTELLINI</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>250 ml• kr 99,60/l</t>
+          <t>500 g• kr 80,80/kg</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 40,40</t>
         </is>
       </c>
     </row>
@@ -6371,17 +6351,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>XTRA COLA LIGHT</t>
+          <t>COOP FISKEKAKER</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>1,5 l• kr 10,27/l</t>
+          <t>900 g• kr 88,80/kg</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>kr 15,40</t>
+          <t>kr 79,92</t>
         </is>
       </c>
     </row>
@@ -6415,17 +6395,17 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>COOP WOKMIX/RÅKOST/GRØNNKÅL</t>
+          <t>VIVERA CRISPY SNITZEL</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2x150-300 g• maks kr 133,33/kg</t>
+          <t>200 g• kr 195,60/kg</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 39,12</t>
         </is>
       </c>
     </row>
@@ -6437,17 +6417,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>COOP SPINAT/BABYSPINAT</t>
+          <t>DOBBEL DUSCH</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2x100-200 g• maks kr 225/kg</t>
+          <t>250 ml• kr 99,60/l</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>kr 45</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -6459,13 +6439,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>DRIKKETIPS!</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr"/>
+          <t>XTRA FRUKTKARAMELLER</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>350 g• kr 125,71/kg</t>
+        </is>
+      </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 44</t>
         </is>
       </c>
     </row>
@@ -6477,17 +6461,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>COOP MORGENSTYKKER 8 PK</t>
+          <t>COOP BRUS</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2x560 g• kr 49,11/kg</t>
+          <t>2x1,5 l• kr 8,17/l</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>kr 55</t>
+          <t>kr 24,50</t>
         </is>
       </c>
     </row>
@@ -6499,13 +6483,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>XTRA BATTERIER</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr"/>
+          <t>COOP FRYSEPOSER</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2 stykker• kr 12,50/hver</t>
+        </is>
+      </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>kr 24,20</t>
+          <t>kr 25</t>
         </is>
       </c>
     </row>
@@ -6517,17 +6505,17 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>XTRA SJAMPINJONG</t>
+          <t>XTRA EPLER</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>250 g• kr 59,60/kg</t>
+          <t>1 kg• kr 24,90/kg</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -6539,17 +6527,17 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>XTRA SJAMPINJONG</t>
+          <t>COOP CHIPS</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>250 g• kr 59,60/kg</t>
+          <t>140-250 g• maks kr 257,14/kg</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>kr 14,90</t>
+          <t>kr 36</t>
         </is>
       </c>
     </row>
@@ -6561,13 +6549,13 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>XTRA VANNKOKER</t>
+          <t>LAMBI TOALETTPAPIR 24 PK</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
-          <t>kr 169</t>
+          <t>kr 119</t>
         </is>
       </c>
     </row>
@@ -6579,17 +6567,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>XTRA EPLER</t>
+          <t>XTRA COLA LIGHT</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>1 kg• kr 24,90/kg</t>
+          <t>1,5 l• kr 10,27/l</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 15,40</t>
         </is>
       </c>
     </row>
@@ -6601,13 +6589,17 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NORTHPEAK UNDERTØY</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr"/>
+          <t>COOP STORFEKJØTT</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>300 g• kr 221,07/kg</t>
+        </is>
+      </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>kr 149</t>
+          <t>kr 66,32</t>
         </is>
       </c>
     </row>
@@ -6619,13 +6611,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Roser 15 stk</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr"/>
+          <t>XTRA POTETCHIPS</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>300 g• kr 89,67/kg</t>
+        </is>
+      </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>kr 79,90</t>
+          <t>kr 26,90</t>
         </is>
       </c>
     </row>
@@ -6637,17 +6633,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>L’OR ESPRESSO CAPS</t>
+          <t>DOBBEL DUSCH</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2x10 stykker• kr 3,50/hver</t>
+          <t>250 ml• kr 99,60/l</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>kr 70</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -6659,13 +6655,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TEFAL® DAILY COOK STEKEPANNE 28 CM</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr"/>
+          <t>XTRA MAKARONI</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>1 kg• kr 24,40/kg</t>
+        </is>
+      </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>kr 299</t>
+          <t>kr 24,40</t>
         </is>
       </c>
     </row>
@@ -6677,17 +6677,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>VIVERA CRISPY SNITZEL</t>
+          <t>COOP EGGNUDLER</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>200 g• kr 195,60/kg</t>
+          <t>250 g• kr 51,60/kg</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>kr 39,12</t>
+          <t>kr 12,90</t>
         </is>
       </c>
     </row>
@@ -6699,17 +6699,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>XTRA SMÅKAKER BLANDET</t>
+          <t>COOP FRYSEPOSER</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>400 g• kr 91,75/kg</t>
+          <t>2 stykker• kr 12,50/hver</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>kr 36,70</t>
+          <t>kr 25</t>
         </is>
       </c>
     </row>
@@ -6721,17 +6721,13 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>COOP FISKEKAKER</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>900 g• kr 88,80/kg</t>
-        </is>
-      </c>
+          <t>DRIKKETIPS!</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>kr 79,92</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -6743,17 +6739,13 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>XTRA COLA LIGHT</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>1,5 l• kr 10,27/l</t>
-        </is>
-      </c>
+          <t>Roser 15 stk</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>kr 15,40</t>
+          <t>kr 79,90</t>
         </is>
       </c>
     </row>
@@ -6765,17 +6757,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>XTRA POTETCHIPS</t>
+          <t>L’OR ESPRESSO CAPS</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>300 g• kr 89,67/kg</t>
+          <t>2x10 stykker• kr 3,50/hver</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>kr 26,90</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -6787,17 +6779,13 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FREIA SMAKFULL</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>2x270-320 g• maks kr 120,37/kg</t>
-        </is>
-      </c>
+          <t>TEFAL® DAILY COOK STEKEPANNE 28 CM</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>kr 65</t>
+          <t>kr 299</t>
         </is>
       </c>
     </row>
@@ -6809,13 +6797,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Roser 15 stk</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr"/>
+          <t>COOP MARSIPANKAKE</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>800 g• kr 223,75/kg</t>
+        </is>
+      </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>kr 79,90</t>
+          <t>kr 179</t>
         </is>
       </c>
     </row>
@@ -6827,31 +6819,31 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>JANUS ULLSETT BARN</t>
+          <t>BØKER TIL FARSDAG</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>kr 499</t>
+          <t>kr 183</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Coop-Extra</t>
+          <t>Coop-Prix</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>BØKER TIL FARSDAG</t>
+          <t>LAMBI TOALETTPAPIR 12 PK</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>kr 183</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -6863,17 +6855,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TINE ISKAFFE</t>
+          <t>Små gule poteter</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2x330 ml•kr 45,45/l</t>
+          <t>1 kg•kr 18,90/kg</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 18,90</t>
         </is>
       </c>
     </row>
@@ -6885,17 +6877,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>NIDAR LABAN ORIGINAL</t>
+          <t>KINDERSJOKOLADE MAXI</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2x260 g•kr 134,62/kg</t>
+          <t>21 g•kr 476,19/kg</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>kr 70</t>
+          <t>kr 10</t>
         </is>
       </c>
     </row>
@@ -6907,17 +6899,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>UTVALGTE GÒ MORGEN YOGHURT</t>
+          <t>UTVALGTE SMAK* JUICE</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2x190 g•kr 52,63/kg</t>
+          <t>1 l•kr 30/l</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>kr 20</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -6929,12 +6921,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>UTVALGTE SMAK* JUICE</t>
+          <t>SUNLIGHT OPPVASK</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>1 l•kr 30/l</t>
+          <t>500 ml•kr 60/l</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -6951,17 +6943,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>SUNLIGHT OPPVASK</t>
+          <t>COOP FROKOSTEGG 12 PK</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>500 ml•kr 60/l</t>
+          <t>12 stykker•kr 3,33/hver</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -6973,17 +6965,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>SOLIDOX TANNKREM HVITE TENNER</t>
+          <t>COOP KOKESJOKOLADE</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>75 ml•kr 400/l</t>
+          <t>2x100 g•kr 100/kg</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -6995,13 +6987,13 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>FJORDLAND KJØTTKAKER/PASTA I SKÅL</t>
+          <t>Roser 15 stk</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>kr 50</t>
+          <t>kr 79,90</t>
         </is>
       </c>
     </row>
@@ -7013,17 +7005,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>GILDE KARBONADER</t>
+          <t>REGAL LETTBAKTE BOLLER</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>720 g•kr 111,11/kg</t>
+          <t>1 kg•kr 20/kg</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>kr 80</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -7035,17 +7027,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Små gule poteter</t>
+          <t>MELANGE MARGARIN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>1 kg•kr 18,90/kg</t>
+          <t>500 g•kr 60/kg</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>kr 18,90</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -7057,17 +7049,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NORSKE RØDE EPLER</t>
+          <t>COOP SPEKESKINKE</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>1 kg•kr 30/kg</t>
+          <t>2x100 g•kr 400/kg</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 80</t>
         </is>
       </c>
     </row>
@@ -7079,17 +7071,17 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>CASA DI MAMA TRIO DI CARNE</t>
+          <t>DONUTS/BERLINERBOLLE</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2x405 g•kr 111,11/kg</t>
+          <t>2 stykker•kr 10/hver</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>kr 90</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -7101,17 +7093,17 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TINE RISLUNSJ/ BYGGLUNSJ</t>
+          <t>UTVALGTE GÒ MORGEN YOGHURT</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>150 g•kr 66,67/kg</t>
+          <t>2x190 g• kr 52,63/kg</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>kr 10</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -7123,17 +7115,17 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>UTVALGTE COLGATE TANNKREM</t>
+          <t>JARLSBERG SKORPEFRI</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2 stykker• kr 15/hver</t>
+          <t>700 g• kr 128,57/kg</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 90</t>
         </is>
       </c>
     </row>
@@ -7145,17 +7137,17 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>MILO</t>
+          <t>SANTA MARIA COCONUT MILK</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>595 ml• kr 84,03/l</t>
+          <t>2x250 ml• kr 80/l</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>kr 50</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -7167,13 +7159,17 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>UTVALGTE VASKE- OG MUNNPRODUKTER</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
+          <t>NIDAR LABAN ORIGINAL</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>2x260 g• kr 134,62/kg</t>
+        </is>
+      </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -7185,17 +7181,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>COOP PERLETOMATER</t>
+          <t>COOP FESTKAKE</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>175 g• kr 171,43/kg</t>
+          <t>600 g• kr 150/kg</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 90</t>
         </is>
       </c>
     </row>
@@ -7207,17 +7203,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>BRELETT</t>
+          <t>HATTING GROVE RUNDSTYKKER</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>540 g• kr 55,56/kg</t>
+          <t>600 g• kr 66,67/kg</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -7229,17 +7225,17 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>GILDE SKIVET SALAMI SILIANA</t>
+          <t>COOP KJØTTDEIG AV SVIN</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2x130 g• kr 269,23/kg</t>
+          <t>2x400 g• kr 100/kg</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>kr 70</t>
+          <t>kr 80</t>
         </is>
       </c>
     </row>
@@ -7251,17 +7247,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>GILDE WIENERPØLSE</t>
+          <t>GROVE/FINE FROKOSTBRØD</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>520 g• kr 115,38/kg</t>
+          <t>2 stykker• kr 10/hver</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>kr 60</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -7273,17 +7269,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>COOP STEINFRIE FARGEDE DRUER</t>
+          <t>DONUTS/BERLINERBOLLE</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>500 g• kr 60/kg</t>
+          <t>2 stykker• kr 10/hver</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -7295,13 +7291,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>AMARYLLIS</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
+          <t>TOFFIFEE</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>125 g• kr 320/kg</t>
+        </is>
+      </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>kr 70</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -7313,17 +7313,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>UTVALGTE COOP GUL OG RØD KAFFE</t>
+          <t>NIDAR SMÅGODT</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>250 g• kr 120/kg</t>
+          <t>100 g• kr 100/kg</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 10</t>
         </is>
       </c>
     </row>
@@ -7335,17 +7335,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>REGAL HVETEMEL</t>
+          <t>FREIA TWIST</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>4x2 kg• kr 6,88/kg</t>
+          <t>330 g• kr 212,12/kg</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>kr 55</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -7357,17 +7357,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>UTVALGTE KIMS</t>
+          <t>KVIKK LUNSJ 3 PK</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>200 g• kr 150/kg</t>
+          <t>2x141 g• kr 212,77/kg</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 60</t>
         </is>
       </c>
     </row>
@@ -7379,17 +7379,17 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TINE RISLUNSJ/ BYGGLUNSJ</t>
+          <t>POPPA</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>150 g• kr 66,67/kg</t>
+          <t>75 g• kr 266,67/kg</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>kr 10</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -7401,17 +7401,17 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>UTVALGTE COOP GUL OG RØD KAFFE</t>
+          <t>RED BULL</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>250 g• kr 120/kg</t>
+          <t>2x0,473 l• kr 52,85/l</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -7423,17 +7423,17 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>REGAL HVETEMEL</t>
+          <t>UTVALGTE SMAK* JUICE</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>4x2 kg• kr 6,88/kg</t>
+          <t>1 l• kr 30/l</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>kr 55</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -7445,17 +7445,13 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>UTVALGTE SMAK* JUICE</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>1 l• kr 30/l</t>
-        </is>
-      </c>
+          <t>LAMBI TOALETTPAPIR 12 PK</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -7467,12 +7463,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>SUNLIGHT OPPVASK</t>
+          <t>COOP STEINFRIE FARGEDE DRUER</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>500 ml• kr 60/l</t>
+          <t>500 g• kr 60/kg</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -7489,13 +7485,13 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>UTVALGTE VASKE- OG MUNNPRODUKTER</t>
+          <t>AMARYLLIS</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -7507,17 +7503,17 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>BLIW HÅNDSÅPE</t>
+          <t>GILDE SKIVET SALAMI SILIANA</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>300 ml• kr 66,67/l</t>
+          <t>2x130 g• kr 269,23/kg</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>kr 20</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -7529,17 +7525,17 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>GLADE DUFTBLOKK LAVENDER</t>
+          <t>PIZZALUNSJ</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>150 ml• kr 133,33/l</t>
+          <t>2 stykker• kr 22,50/hver</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>kr 20</t>
+          <t>kr 45</t>
         </is>
       </c>
     </row>
@@ -7551,17 +7547,17 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NORSK RØDLØK I STRØMPE</t>
+          <t>COOP SPEKESKINKE</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>400 g• kr 37,50/kg</t>
+          <t>2x100 g• kr 400/kg</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>kr 15</t>
+          <t>kr 80</t>
         </is>
       </c>
     </row>
@@ -7573,17 +7569,17 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>COOP SNACKMIKS MINIGULRØTTER</t>
+          <t>PLUMBO HEAVY GEL</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>250 g• kr 60/kg</t>
+          <t>550 g• kr 145,45/kg</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>kr 15</t>
+          <t>kr 80</t>
         </is>
       </c>
     </row>
@@ -7595,12 +7591,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>COOP PERLETOMATER</t>
+          <t>UTVALGTE COOP GUL OG RØD KAFFE</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>175 g• kr 171,43/kg</t>
+          <t>250 g• kr 120/kg</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7617,17 +7613,17 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>PLUMBO HEAVY GEL</t>
+          <t>REGAL HVETEMEL</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>550 g• kr 145,45/kg</t>
+          <t>4x2 kg• kr 6,88/kg</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>kr 80</t>
+          <t>kr 55</t>
         </is>
       </c>
     </row>
@@ -7639,17 +7635,17 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>COOP MØRBRAD STORFE</t>
+          <t>UTVALGTE COLGATE TANNKREM</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>190 g• kr 315,79/kg</t>
+          <t>2 stykker• kr 15/hver</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>kr 60</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -7661,17 +7657,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>HATTING FINE PITABRØD</t>
+          <t>MILO</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>480 g• kr 62,50/kg</t>
+          <t>595 ml• kr 84,03/l</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -7683,13 +7679,13 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>MALACO GODT &amp; BLANDET/POPS</t>
+          <t>UTVALGTE VASKE- OG MUNNPRODUKTER</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -7701,17 +7697,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>SANTA MARIA COCONUT MILK</t>
+          <t>BLIW HÅNDSÅPE</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2x250 ml• kr 80/l</t>
+          <t>300 ml• kr 66,67/l</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -7723,17 +7719,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>SAFARI ORIGINAL</t>
+          <t>GLADE DUFTBLOKK LAVENDER</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2x200 g• kr 125/kg</t>
+          <t>150 ml• kr 133,33/l</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>kr 50</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -7745,13 +7741,17 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Roser 15 stk</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr"/>
+          <t>NORSK RØDLØK I STRØMPE</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>400 g• kr 37,50/kg</t>
+        </is>
+      </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>kr 79,90</t>
+          <t>kr 15</t>
         </is>
       </c>
     </row>
@@ -7763,17 +7763,17 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>LITAGO</t>
+          <t>COOP SNACKMIKS MINIGULRØTTER</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2x0,5 l• kr 30/l</t>
+          <t>250 g• kr 60/kg</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 15</t>
         </is>
       </c>
     </row>
@@ -7785,17 +7785,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>SYNNØVE GOUDA/GULOST SKIVET</t>
+          <t>COOP PERLETOMATER</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>285-300 g• maks kr 140,35/kg</t>
+          <t>175 g• kr 171,43/kg</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -7807,17 +7807,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>PIZZALUNSJ</t>
+          <t>LERØY ØRRET/LAKS</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2 stykker• kr 22,50/hver</t>
+          <t>2x125 g• kr 320/kg</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>kr 45</t>
+          <t>kr 80</t>
         </is>
       </c>
     </row>
@@ -7829,17 +7829,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>GROVE/FINE FROKOSTBRØD</t>
+          <t>FJORDLAND RISGRØT</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2 stykker• kr 10/hver</t>
+          <t>2x472 g• kr 52,97/kg</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>kr 20</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -7851,17 +7851,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>COOP SUKKERERTER/ FARRIS NATURELL</t>
+          <t>DEN STOLTE HANE KYLLINGFILET</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>2 stykker• kr 20/hver</t>
+          <t>200 g• kr 250/kg</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -7873,17 +7873,17 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>DONUTS/BERLINERBOLLE</t>
+          <t>GILDE WIENERPØLSE</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2 stykker• kr 10/hver</t>
+          <t>520 g• kr 115,38/kg</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>kr 20</t>
+          <t>kr 60</t>
         </is>
       </c>
     </row>
@@ -7895,17 +7895,17 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>WIENERBRØD</t>
+          <t>COOP STEINFRIE FARGEDE DRUER</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2 stykker• kr 14/hver</t>
+          <t>500 g• kr 60/kg</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>kr 28</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -7917,17 +7917,13 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>SKOLEBRØD/SOLBOLLER</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>2 stykker• kr 15/hver</t>
-        </is>
-      </c>
+          <t>AMARYLLIS</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -7939,17 +7935,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>COOP FRØKNEKKEBRØD</t>
+          <t>TINE RISLUNSJ/ BYGGLUNSJ</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>200 g• kr 200/kg</t>
+          <t>150 g• kr 66,67/kg</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 10</t>
         </is>
       </c>
     </row>
@@ -7961,12 +7957,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>MILLS KAVIAR</t>
+          <t>SAFARI ORIGINAL</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2x185 g• kr 135,14/kg</t>
+          <t>2x200 g• kr 125/kg</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -7983,17 +7979,17 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>COOP FROKOSTEGG 12 PK</t>
+          <t>GILDE SKIVET SALAMI SILIANA</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>12 stykker• kr 3,33/hver</t>
+          <t>2x130 g• kr 269,23/kg</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -8005,17 +8001,17 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>COOP KOKESJOKOLADE</t>
+          <t>SYNNØVE GOUDA/GULOST SKIVET</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>2x100 g• kr 100/kg</t>
+          <t>285-300 g• maks kr 140,35/kg</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>kr 20</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -8027,17 +8023,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>COOP FESTKAKE</t>
+          <t>COOP FRØKNEKKEBRØD</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>600 g• kr 150/kg</t>
+          <t>200 g• kr 200/kg</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>kr 90</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -8049,17 +8045,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>HATTING GROVE RUNDSTYKKER</t>
+          <t>MILLS KAVIAR</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>600 g• kr 66,67/kg</t>
+          <t>2x185 g• kr 135,14/kg</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -8071,17 +8067,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>REGAL LETTBAKTE BOLLER</t>
+          <t>PIZZALUNSJ</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>1 kg• kr 20/kg</t>
+          <t>2 stykker• kr 22,50/hver</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>kr 20</t>
+          <t>kr 45</t>
         </is>
       </c>
     </row>
@@ -8093,17 +8089,17 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>MELANGE MARGARIN</t>
+          <t>GROVE/FINE FROKOSTBRØD</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>500 g• kr 60/kg</t>
+          <t>2 stykker• kr 10/hver</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -8115,17 +8111,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>KINDERSJOKOLADE MAXI</t>
+          <t>COOP SUKKERERTER/ FARRIS NATURELL</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>21 g• kr 476,19/kg</t>
+          <t>2 stykker• kr 20/hver</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>kr 10</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -8137,17 +8133,17 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TOFFIFEE</t>
+          <t>COOP TAGLIATELLE</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>125 g• kr 320/kg</t>
+          <t>2x300 g• kr 83,33/kg</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>kr 40</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -8159,17 +8155,17 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NIDAR SMÅGODT</t>
+          <t>COOP BACONTERNINGER</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>100 g• kr 100/kg</t>
+          <t>2x200 g• kr 187,50/kg</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>kr 10</t>
+          <t>kr 75</t>
         </is>
       </c>
     </row>
@@ -8181,17 +8177,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>FREIA TWIST</t>
+          <t>TOFFIFEE</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>330 g• kr 212,12/kg</t>
+          <t>125 g• kr 320/kg</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>kr 70</t>
+          <t>kr 40</t>
         </is>
       </c>
     </row>
@@ -8203,17 +8199,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>KVIKK LUNSJ 3 PK</t>
+          <t>NIDAR SMÅGODT</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>2x141 g• kr 212,77/kg</t>
+          <t>100 g• kr 100/kg</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>kr 60</t>
+          <t>kr 10</t>
         </is>
       </c>
     </row>
@@ -8225,13 +8221,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>UTVALGTE BAKST</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr"/>
+          <t>FREIA TWIST</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>330 g• kr 212,12/kg</t>
+        </is>
+      </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>kr 10</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -8243,17 +8243,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>POPPA</t>
+          <t>KVIKK LUNSJ 3 PK</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>75 g• kr 266,67/kg</t>
+          <t>2x141 g• kr 212,77/kg</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>kr 20</t>
+          <t>kr 60</t>
         </is>
       </c>
     </row>
@@ -8265,17 +8265,13 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>RED BULL</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>2x0,473 l• kr 52,85/l</t>
-        </is>
-      </c>
+          <t>UTVALGTE BAKST</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr">
         <is>
-          <t>kr 50</t>
+          <t>kr 10</t>
         </is>
       </c>
     </row>
@@ -8287,10 +8283,14 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>UTVALGTE COOP GODTERI/SNACKS</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr"/>
+          <t>POPPA</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>75 g• kr 266,67/kg</t>
+        </is>
+      </c>
       <c r="D366" t="inlineStr">
         <is>
           <t>kr 20</t>
@@ -8305,17 +8305,17 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>UTVALGTE SMÅSJOKOLADER</t>
+          <t>RED BULL</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>2 stykker• kr 15/hver</t>
+          <t>2x0,473 l• kr 52,85/l</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 50</t>
         </is>
       </c>
     </row>
@@ -8327,17 +8327,13 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NIDAR UTVALGTE POSER</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>2 stykker• kr 35/hver</t>
-        </is>
-      </c>
+          <t>UTVALGTE COOP GODTERI/SNACKS</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr">
         <is>
-          <t>kr 70</t>
+          <t>kr 20</t>
         </is>
       </c>
     </row>
@@ -8349,17 +8345,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>COOP SPANSKE KJØTTBOLLER</t>
+          <t>UTVALGTE SMÅSJOKOLADER</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2x360 g• kr 152,78/kg</t>
+          <t>2 stykker• kr 15/hver</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>kr 110</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -8371,17 +8367,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>UTVALGTE COOP PIZZA</t>
+          <t>NIDAR UTVALGTE POSER</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>2x340 g• kr 95,59/kg</t>
+          <t>2 stykker• kr 35/hver</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>kr 65</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -8393,17 +8389,17 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>COOP TAGLIATELLE</t>
+          <t>NIDAR LABAN ORIGINAL</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>2x300 g• kr 83,33/kg</t>
+          <t>2x260 g• kr 134,62/kg</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>kr 50</t>
+          <t>kr 70</t>
         </is>
       </c>
     </row>
@@ -8415,13 +8411,17 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>UTVALGTE COOP GODTERI/SNACKS</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr"/>
+          <t>CASA DI MAMA TRIO DI CARNE</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>2x405 g• kr 111,11/kg</t>
+        </is>
+      </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>kr 20</t>
+          <t>kr 90</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>UTVALGTE SMÅSJOKOLADER</t>
+          <t>SKOLEBRØD/SOLBOLLER</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -8450,22 +8450,18 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Coop-Prix</t>
+          <t>Joker</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>NIDAR UTVALGTE POSER</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>2 stykker• kr 35/hver</t>
-        </is>
-      </c>
+          <t>Dvergplante</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr"/>
       <c r="D374" t="inlineStr">
         <is>
-          <t>kr 70</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -8477,17 +8473,13 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Norvegia</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>500 g•kr 89,80/kg</t>
-        </is>
-      </c>
+          <t>Roser</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr">
         <is>
-          <t>kr 44,90</t>
+          <t>kr 99</t>
         </is>
       </c>
     </row>
@@ -8499,12 +8491,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Mors grovbrød</t>
+          <t>Norske epler</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>750 g•kr 39,87/kg</t>
+          <t>1 kg•kr 29,90/kg</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -8521,12 +8513,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Kokt skinke</t>
+          <t>Mors grovbrød</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>150 g•kr 199,33/kg</t>
+          <t>750 g•kr 39,87/kg</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -8543,17 +8535,17 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Kyllingfilet</t>
+          <t>Kokt skinke</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>650 g•kr 107,54/kg</t>
+          <t>150 g•kr 199,33/kg</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>kr 69,90</t>
+          <t>kr 29,90</t>
         </is>
       </c>
     </row>
@@ -8565,17 +8557,17 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Et utvalg brus 1,5 l</t>
+          <t>Kyllingfilet</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>1,5 l•kr 13,27/l</t>
+          <t>650 g•kr 107,54/kg</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 69,90</t>
         </is>
       </c>
     </row>
@@ -8587,17 +8579,17 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Twix Xtra</t>
+          <t>Et utvalg brus 1,5 l</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>75 g•kr 133,33/kg</t>
+          <t>1,5 l•kr 13,27/l</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>kr 10</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -8609,13 +8601,17 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Herreboxer</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr"/>
+          <t>Farsdagskake</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>425-900 g•maks kr 235,06/kg</t>
+        </is>
+      </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>kr 199</t>
+          <t>kr 99,90</t>
         </is>
       </c>
     </row>
@@ -8627,17 +8623,17 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Melkehjerter</t>
+          <t>Farsdagskake</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>130 g•kr 306,92/kg</t>
+          <t>425-900 g•maks kr 423,29/kg</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>kr 39,90</t>
+          <t>kr 179,90</t>
         </is>
       </c>
     </row>
@@ -8649,13 +8645,17 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Roser</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr"/>
+          <t>Kjøttpølse</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>900 g•kr 77,67/kg</t>
+        </is>
+      </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>kr 99</t>
+          <t>kr 69,90</t>
         </is>
       </c>
     </row>
@@ -8667,17 +8667,17 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Stenfrie druer</t>
+          <t>Melkehjerter</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>500 g•kr 49,80/kg</t>
+          <t>130 g•kr 306,92/kg</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 39,90</t>
         </is>
       </c>
     </row>
@@ -8689,13 +8689,17 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Dvergplante</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr"/>
+          <t>Norvegia</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>500 g•kr 89,80/kg</t>
+        </is>
+      </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 44,90</t>
         </is>
       </c>
     </row>
@@ -8707,17 +8711,13 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Norske epler</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>1 kg•kr 29,90/kg</t>
-        </is>
-      </c>
+          <t>Blomkål</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -8729,13 +8729,17 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Blomkål</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr"/>
+          <t>Squash</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>350 g• kr 56,86/kg</t>
+        </is>
+      </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>kr 24,90</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -8747,17 +8751,13 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Squash</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>350 g• kr 56,86/kg</t>
-        </is>
-      </c>
+          <t>Persimon</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 9,90</t>
         </is>
       </c>
     </row>
@@ -8769,13 +8769,17 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Persimon</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr"/>
+          <t>Mors grovbrød</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>750 g• kr 39,87/kg</t>
+        </is>
+      </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>kr 9,90</t>
+          <t>kr 29,90</t>
         </is>
       </c>
     </row>
@@ -8787,17 +8791,17 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Mors grovbrød</t>
+          <t>Wienerbakst</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>750 g• kr 39,87/kg</t>
+          <t>2x70-106 g• maks kr 214,29/kg</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>kr 29,90</t>
+          <t>kr 30</t>
         </is>
       </c>
     </row>
@@ -8809,17 +8813,17 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Wienerbakst</t>
+          <t>Farsdagskake</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2x70-106 g• maks kr 214,29/kg</t>
+          <t>425-900 g• maks kr 235,06/kg</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>kr 30</t>
+          <t>kr 99,90</t>
         </is>
       </c>
     </row>
@@ -8836,12 +8840,12 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>425-900 g• maks kr 235,06/kg</t>
+          <t>425-900 g• maks kr 423,29/kg</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>kr 99,90</t>
+          <t>kr 179,90</t>
         </is>
       </c>
     </row>
@@ -8853,17 +8857,17 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Farsdagskake</t>
+          <t>Fiskeburger</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>425-900 g• maks kr 423,29/kg</t>
+          <t>500 g• kr 139,80/kg</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>kr 179,90</t>
+          <t>kr 69,90</t>
         </is>
       </c>
     </row>
@@ -8875,7 +8879,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Fiskeburger</t>
+          <t>Scampi 31/40</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -8897,12 +8901,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Scampi 31/40</t>
+          <t>Strimlet kyllingfilet</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>500 g• kr 139,80/kg</t>
+          <t>400 g• kr 174,75/kg</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -8919,12 +8923,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Strimlet kyllingfilet</t>
+          <t>Svenske kjøttboller</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>400 g• kr 174,75/kg</t>
+          <t>566 g• kr 123,50/kg</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -8941,12 +8945,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Svenske kjøttboller</t>
+          <t>Stabburet-pai</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>566 g• kr 123,50/kg</t>
+          <t>2x220 g• kr 158,86/kg</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -8963,17 +8967,17 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Stabburet-pai</t>
+          <t>Stenfrie druer</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2x220 g• kr 158,86/kg</t>
+          <t>500 g• kr 49,80/kg</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>kr 69,90</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -8985,17 +8989,17 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Kjøttpølse</t>
+          <t>Pulled Pork</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>900 g• kr 77,67/kg</t>
+          <t>500 g• kr 179,80/kg</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>kr 69,90</t>
+          <t>kr 89,90</t>
         </is>
       </c>
     </row>
@@ -9007,17 +9011,17 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Pulled Pork</t>
+          <t>Kjøttpølse</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>500 g• kr 179,80/kg</t>
+          <t>900 g• kr 77,67/kg</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>kr 89,90</t>
+          <t>kr 69,90</t>
         </is>
       </c>
     </row>
@@ -9029,17 +9033,17 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Kjøttpølse</t>
+          <t>Indrefilet</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>900 g• kr 77,67/kg</t>
+          <t>1 kg• kr 129/kg</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>kr 69,90</t>
+          <t>kr 129</t>
         </is>
       </c>
     </row>
@@ -9051,17 +9055,17 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Indrefilet</t>
+          <t>Gresk yoghurt</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>1 kg• kr 129/kg</t>
+          <t>160 g• kr 124,37/kg</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>kr 129</t>
+          <t>kr 19,90</t>
         </is>
       </c>
     </row>
@@ -9073,17 +9077,17 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Gresk yoghurt</t>
+          <t>Eplejuice</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>160 g• kr 124,37/kg</t>
+          <t>1 l• kr 24,90/l</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>kr 19,90</t>
+          <t>kr 24,90</t>
         </is>
       </c>
     </row>
@@ -9095,12 +9099,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Eplejuice</t>
+          <t>Servelat</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>1 l• kr 24,90/l</t>
+          <t>150 g• kr 166/kg</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -9117,37 +9121,15 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Servelat</t>
+          <t>Salami</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>150 g• kr 166/kg</t>
+          <t>200 g• kr 124,50/kg</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
-        <is>
-          <t>kr 24,90</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>Joker</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>Salami</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>200 g• kr 124,50/kg</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr">
         <is>
           <t>kr 24,90</t>
         </is>
